--- a/Proyecto_Programado_1_POO/InformacionSismos.xlsx
+++ b/Proyecto_Programado_1_POO/InformacionSismos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCPC\Documents\NetBeansProjects\Proyecto_Programado_1_POO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32E859A-BF9D-45FD-905D-F47C687A935D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA91B456-EFE9-4395-9815-C4DE25F52AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA630437-BE34-4451-9ACC-A45962E560FA}"/>
   </bookViews>
@@ -34,40 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Fecha_Hora</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Magnitud</t>
-  </si>
-  <si>
-    <t>Profundidad</t>
-  </si>
-  <si>
-    <t>Origen</t>
-  </si>
-  <si>
-    <t>Latitud</t>
-  </si>
-  <si>
-    <t>Longitud</t>
-  </si>
-  <si>
-    <t>Localizacion</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="91">
   <si>
     <t>Si</t>
   </si>
@@ -712,7 +679,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,670 +695,636 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1">
+        <v>200</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1">
+        <v>10.1187</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-84.161000000000001</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1">
-        <v>10.1187</v>
+        <v>8.6359999999999992</v>
       </c>
       <c r="H2" s="1">
-        <v>-84.161000000000001</v>
+        <v>-82.930999999999997</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1">
-        <v>8.6359999999999992</v>
+        <v>9.6487999999999996</v>
       </c>
       <c r="H3" s="1">
-        <v>-82.930999999999997</v>
+        <v>-84.034400000000005</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1">
-        <v>9.6487999999999996</v>
+        <v>9.952</v>
       </c>
       <c r="H4" s="1">
-        <v>-84.034400000000005</v>
+        <v>-84.153999999999996</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1">
-        <v>9.952</v>
+        <v>9.4558999999999997</v>
       </c>
       <c r="H5" s="1">
-        <v>-84.153999999999996</v>
+        <v>-85.392899999999997</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1">
-        <v>9.4558999999999997</v>
+        <v>9.0180000000000007</v>
       </c>
       <c r="H6" s="1">
-        <v>-85.392899999999997</v>
+        <v>-83.668999999999997</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1">
-        <v>9.0180000000000007</v>
+        <v>10.1647</v>
       </c>
       <c r="H7" s="1">
-        <v>-83.668999999999997</v>
+        <v>-83.7393</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1">
-        <v>10.1647</v>
+        <v>9.5079999999999991</v>
       </c>
       <c r="H8" s="1">
-        <v>-83.7393</v>
+        <v>-83.944999999999993</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1">
-        <v>9.5079999999999991</v>
+        <v>9.8480000000000008</v>
       </c>
       <c r="H9" s="1">
-        <v>-83.944999999999993</v>
+        <v>-84.174999999999997</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1">
-        <v>9.8480000000000008</v>
+        <v>9.65</v>
       </c>
       <c r="H10" s="1">
-        <v>-84.174999999999997</v>
+        <v>-84</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1">
-        <v>9.65</v>
+        <v>8.5660000000000007</v>
       </c>
       <c r="H11" s="1">
-        <v>-84</v>
+        <v>-83.24</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1">
-        <v>8.5660000000000007</v>
+        <v>9.6504999999999992</v>
       </c>
       <c r="H12" s="1">
-        <v>-83.24</v>
+        <v>-83.830399999999997</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1">
-        <v>9.6504999999999992</v>
+        <v>8.2432999999999996</v>
       </c>
       <c r="H13" s="1">
-        <v>-83.830399999999997</v>
+        <v>-83.033500000000004</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1">
-        <v>8.2432999999999996</v>
+        <v>9.4978999999999996</v>
       </c>
       <c r="H14" s="1">
-        <v>-83.033500000000004</v>
+        <v>-83.659099999999995</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1">
-        <v>9.4978999999999996</v>
+        <v>10.5839</v>
       </c>
       <c r="H15" s="1">
-        <v>-83.659099999999995</v>
+        <v>-83.858400000000003</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1">
-        <v>10.5839</v>
+        <v>10.235799999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>-83.858400000000003</v>
+        <v>-84.022800000000004</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1">
-        <v>10.235799999999999</v>
+        <v>11.136100000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>-84.022800000000004</v>
+        <v>-85.872200000000007</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1">
-        <v>11.136100000000001</v>
+        <v>9.3163</v>
       </c>
       <c r="H18" s="1">
-        <v>-85.872200000000007</v>
+        <v>-83.950299999999999</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="1">
-        <v>455</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="1">
-        <v>9.3163</v>
-      </c>
-      <c r="H19" s="1">
-        <v>-83.950299999999999</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Proyecto_Programado_1_POO/InformacionSismos.xlsx
+++ b/Proyecto_Programado_1_POO/InformacionSismos.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCPC\Documents\GitHub\Proyecto-POO\Proyecto_Programado_1_POO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{0798BDA7-E755-4490-846C-A5FA070CCBA0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C56057-5B18-4903-B671-73E4583DE762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{8B28D590-92EB-439E-AAAA-5DC3155F600C}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B28D590-92EB-439E-AAAA-5DC3155F600C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" r:id="rId1" sheetId="1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,64 +34,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
-  <si>
-    <t>Eri</t>
-  </si>
-  <si>
-    <t>05/05/2003 - 12:12</t>
-  </si>
-  <si>
-    <t>Fuerte</t>
-  </si>
-  <si>
-    <t>Choque de Placas</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>Moderado</t>
+  </si>
+  <si>
+    <t>Deformación Interna</t>
+  </si>
+  <si>
+    <t>Alajuela</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Mayor</t>
+  </si>
+  <si>
+    <t>Subducción</t>
   </si>
   <si>
     <t>Cartago</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Moderado</t>
-  </si>
-  <si>
-    <t>Tectónico por falla local</t>
-  </si>
-  <si>
-    <t>farce</t>
-  </si>
-  <si>
-    <t>05/00/2012 - 12:12</t>
-  </si>
-  <si>
-    <t>Subducción</t>
-  </si>
-  <si>
-    <t>Hola</t>
-  </si>
-  <si>
-    <t>05/12/2012 - 12:12</t>
-  </si>
-  <si>
-    <t>rgdsfgd</t>
-  </si>
-  <si>
-    <t>04/10/2010 - 12:10</t>
-  </si>
-  <si>
-    <t>sdbfsdbf</t>
-  </si>
-  <si>
-    <t>04/10/2010 - 10:10</t>
+    <t>Farce</t>
+  </si>
+  <si>
+    <t>02/05/2006 - 12:34</t>
+  </si>
+  <si>
+    <t>05/10/2011 - 11:11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,16 +100,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -145,10 +126,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -183,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -235,7 +216,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -346,21 +327,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -377,7 +358,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -429,96 +410,96 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610A70FB-27E4-4517-9E8A-1C3786752AD5}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610A70FB-27E4-4517-9E8A-1C3786752AD5}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>5.5</v>
+      </c>
+      <c r="E1">
+        <v>1212121</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E1" t="n">
-        <v>212121.0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="n">
-        <v>121212.0</v>
-      </c>
-      <c r="H1" t="n">
-        <v>121212.0</v>
+      <c r="G1">
+        <v>12121</v>
+      </c>
+      <c r="H1">
+        <v>21122</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>7.6</v>
+      </c>
+      <c r="E2">
+        <v>1111</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>121212.0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>12121</v>
+      </c>
+      <c r="H2">
+        <v>121221</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="n">
-        <v>12121.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>212122.0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Proyecto_Programado_1_POO/InformacionSismos.xlsx
+++ b/Proyecto_Programado_1_POO/InformacionSismos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCPC\Documents\GitHub\Proyecto-POO\Proyecto_Programado_1_POO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C56057-5B18-4903-B671-73E4583DE762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05F0446-BB60-45FC-BDA8-CE26F966CA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B28D590-92EB-439E-AAAA-5DC3155F600C}"/>
   </bookViews>
@@ -34,41 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>ERI</t>
-  </si>
-  <si>
-    <t>Moderado</t>
-  </si>
-  <si>
-    <t>Deformación Interna</t>
-  </si>
-  <si>
-    <t>Alajuela</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Mayor</t>
-  </si>
-  <si>
-    <t>Subducción</t>
-  </si>
-  <si>
-    <t>Cartago</t>
-  </si>
-  <si>
-    <t>Farce</t>
-  </si>
-  <si>
-    <t>02/05/2006 - 12:34</t>
-  </si>
-  <si>
-    <t>05/10/2011 - 11:11</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,88 +384,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610A70FB-27E4-4517-9E8A-1C3786752AD5}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.42578125" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>5.5</v>
-      </c>
-      <c r="E1">
-        <v>1212121</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>12121</v>
-      </c>
-      <c r="H1">
-        <v>21122</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>7.6</v>
-      </c>
-      <c r="E2">
-        <v>1111</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>12121</v>
-      </c>
-      <c r="H2">
-        <v>121221</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>